--- a/csv_test/ENERO 08012025 --- 20250102  Lista de Precios BIOPAS - copia.xlsx
+++ b/csv_test/ENERO 08012025 --- 20250102  Lista de Precios BIOPAS - copia.xlsx
@@ -194,10 +194,10 @@
     <t>precio compra</t>
   </si>
   <si>
-    <t>(*) Producto exento iva</t>
+    <t>sugerido</t>
   </si>
   <si>
-    <t>SUGERIDO</t>
+    <t>precio con iva</t>
   </si>
   <si>
     <t>$</t>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>LEXOTANIL 3 MG COMP. X 20</t>
-  </si>
-  <si>
-    <t>EXENTO IVA*</t>
   </si>
   <si>
     <t>38000016LE02</t>
@@ -386,9 +383,6 @@
     <t>IXEMPRA INY 15 MG /8 ML X 1 FCO AMP</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>38000013SU01</t>
   </si>
   <si>
@@ -468,6 +462,9 @@
   </si>
   <si>
     <t>Vesanoid 10 mg x 100 caps.</t>
+  </si>
+  <si>
+    <t>132}</t>
   </si>
   <si>
     <t>38000019VA01</t>
@@ -567,6 +564,24 @@
   </si>
   <si>
     <t>7798260150735ass</t>
+  </si>
+  <si>
+    <t>77000009baasq</t>
+  </si>
+  <si>
+    <t>026a</t>
+  </si>
+  <si>
+    <t>02aew</t>
+  </si>
+  <si>
+    <t>026asa</t>
+  </si>
+  <si>
+    <t>02aewq</t>
+  </si>
+  <si>
+    <t>qwqw</t>
   </si>
 </sst>
 </file>
@@ -857,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -994,12 +1009,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,12 +1023,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,6 +1030,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,9 +1079,6 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,9 +1093,6 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,6 +1100,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,9 +1117,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,9 +1127,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,8 +1426,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A77" ySplit="15"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A16" ySplit="15"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
@@ -1937,13 +1934,13 @@
       <c r="G16" s="53"/>
       <c r="H16" s="54"/>
       <c r="I16" s="55">
-        <v>210</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="J16" s="56">
+        <v>5</v>
       </c>
       <c r="K16" s="57">
-        <v>3413.8024711922162</v>
+        <v>1</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -1969,7 +1966,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="50">
         <v>7792371070531</v>
@@ -1978,18 +1975,18 @@
         <v>23</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
       <c r="I17" s="55">
-        <v>210</v>
-      </c>
-      <c r="J17" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J17" s="56">
+        <v>22</v>
       </c>
       <c r="K17" s="57">
-        <v>5742.6804077904053</v>
+        <v>10</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2015,7 +2012,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="50">
         <v>7792371070128</v>
@@ -2024,18 +2021,18 @@
         <v>23</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="54"/>
       <c r="I18" s="55">
-        <v>210</v>
-      </c>
-      <c r="J18" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="56">
+        <v>10</v>
       </c>
       <c r="K18" s="57">
-        <v>6815.4428206318544</v>
+        <v>33</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2061,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="50">
         <v>7792371070234</v>
@@ -2070,18 +2067,18 @@
         <v>23</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55">
-        <v>210</v>
-      </c>
-      <c r="J19" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J19" s="56">
+        <v>63</v>
       </c>
       <c r="K19" s="57">
-        <v>9095.2853063402836</v>
+        <v>32193</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2107,7 +2104,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="50">
         <v>7792371070227</v>
@@ -2116,18 +2113,18 @@
         <v>23</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="54"/>
       <c r="I20" s="55">
-        <v>210</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J20" s="56">
+        <v>63</v>
       </c>
       <c r="K20" s="57">
-        <v>17687.533646221804</v>
+        <v>32193</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -2153,7 +2150,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="59">
         <v>7798260150285</v>
@@ -2162,16 +2159,18 @@
         <v>23</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="62"/>
       <c r="H21" s="63"/>
       <c r="I21" s="55">
-        <v>210</v>
-      </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65">
-        <v>3695.9132319619912</v>
+        <v>2</v>
+      </c>
+      <c r="J21" s="56">
+        <v>63</v>
+      </c>
+      <c r="K21" s="57">
+        <v>32193</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2196,26 +2195,28 @@
       <c r="B22" s="48">
         <v>38</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="65">
+        <v>7798260150292</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="67">
-        <v>7798260150292</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="71"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="55">
-        <v>36654</v>
-      </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73">
-        <v>4938.4773537995998</v>
+        <v>2</v>
+      </c>
+      <c r="J22" s="56">
+        <v>63</v>
+      </c>
+      <c r="K22" s="57">
+        <v>32193</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -2240,26 +2241,28 @@
       <c r="B23" s="48">
         <v>38</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="65">
+        <v>7798260150513</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="67">
-        <v>7798260150513</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="71"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
       <c r="I23" s="55">
-        <v>210</v>
-      </c>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73">
-        <v>76622.930096296186</v>
+        <v>2</v>
+      </c>
+      <c r="J23" s="56">
+        <v>63</v>
+      </c>
+      <c r="K23" s="57">
+        <v>32193</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -2284,26 +2287,28 @@
       <c r="B24" s="48">
         <v>38</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="65">
+        <v>7798260150391</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="67">
-        <v>7798260150391</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
       <c r="I24" s="55">
-        <v>210</v>
-      </c>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73">
-        <v>204461.77771800131</v>
+        <v>2</v>
+      </c>
+      <c r="J24" s="56">
+        <v>63</v>
+      </c>
+      <c r="K24" s="57">
+        <v>32193</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2328,26 +2333,28 @@
       <c r="B25" s="48">
         <v>38</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="65">
+        <v>7798260150407</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="67">
-        <v>7798260150407</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="55">
-        <v>210</v>
-      </c>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73">
-        <v>313063.40202266339</v>
+        <v>2</v>
+      </c>
+      <c r="J25" s="56">
+        <v>63</v>
+      </c>
+      <c r="K25" s="57">
+        <v>363</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -2372,26 +2379,28 @@
       <c r="B26" s="48">
         <v>38</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="65">
+        <v>7798260150421</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="67">
-        <v>7798260150421</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
       <c r="I26" s="55">
-        <v>210</v>
-      </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73">
-        <v>529453.14342872286</v>
+        <v>2</v>
+      </c>
+      <c r="J26" s="56">
+        <v>63</v>
+      </c>
+      <c r="K26" s="57">
+        <v>363</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -2416,26 +2425,28 @@
       <c r="B27" s="48">
         <v>38</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="65">
+        <v>7798260150414</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="67">
-        <v>7798260150414</v>
-      </c>
-      <c r="E27" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
       <c r="I27" s="55">
-        <v>210</v>
-      </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73">
-        <v>453656.65197892417</v>
+        <v>2</v>
+      </c>
+      <c r="J27" s="56">
+        <v>63</v>
+      </c>
+      <c r="K27" s="57">
+        <v>363</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -2457,11 +2468,11 @@
       <c r="A28" s="47">
         <v>13</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="70">
         <v>38</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="59">
         <v>7798260150629</v>
@@ -2470,16 +2481,18 @@
         <v>23</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="62"/>
       <c r="H28" s="63"/>
       <c r="I28" s="55">
-        <v>210</v>
-      </c>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65">
-        <v>453656.65197892417</v>
+        <v>2</v>
+      </c>
+      <c r="J28" s="56">
+        <v>63</v>
+      </c>
+      <c r="K28" s="57">
+        <v>363</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -2504,26 +2517,28 @@
       <c r="B29" s="48">
         <v>38</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="65">
+        <v>7798260150162</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="67">
-        <v>7798260150162</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
       <c r="I29" s="55">
-        <v>210</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73">
-        <v>47071.134144382093</v>
+        <v>2</v>
+      </c>
+      <c r="J29" s="56">
+        <v>63</v>
+      </c>
+      <c r="K29" s="57">
+        <v>363</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -2549,7 +2564,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="50">
         <v>7790375001094</v>
@@ -2558,18 +2573,18 @@
         <v>23</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="53"/>
       <c r="H30" s="54"/>
       <c r="I30" s="55">
-        <v>210</v>
-      </c>
-      <c r="J30" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J30" s="56">
+        <v>63</v>
       </c>
       <c r="K30" s="57">
-        <v>38697.622160847124</v>
+        <v>363</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -2595,7 +2610,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="50">
         <v>7790375001063</v>
@@ -2604,18 +2619,18 @@
         <v>23</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="54"/>
       <c r="I31" s="55">
-        <v>210</v>
-      </c>
-      <c r="J31" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J31" s="56">
+        <v>10</v>
       </c>
       <c r="K31" s="57">
-        <v>125105.32095239674</v>
+        <v>363</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -2641,7 +2656,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="50">
         <v>7790375001070</v>
@@ -2650,18 +2665,18 @@
         <v>23</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="54"/>
       <c r="I32" s="55">
-        <v>210</v>
-      </c>
-      <c r="J32" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J32" s="56">
+        <v>10</v>
       </c>
       <c r="K32" s="57">
-        <v>180192.18571100742</v>
+        <v>12</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -2687,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="50">
         <v>7790375001087</v>
@@ -2696,15 +2711,15 @@
         <v>23</v>
       </c>
       <c r="F33" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="53"/>
       <c r="H33" s="54"/>
       <c r="I33" s="55">
-        <v>210</v>
-      </c>
-      <c r="J33" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J33" s="56">
+        <v>10</v>
       </c>
       <c r="K33" s="57">
         <v>238110.62983864339</v>
@@ -2733,7 +2748,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="50">
         <v>7790375001148</v>
@@ -2742,18 +2757,18 @@
         <v>23</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="53"/>
       <c r="H34" s="54"/>
       <c r="I34" s="55">
-        <v>210</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J34" s="56">
+        <v>10</v>
       </c>
       <c r="K34" s="57">
-        <v>83035.886650691071</v>
+        <v>83035.8866506911</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -2779,7 +2794,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="50">
         <v>7790375001162</v>
@@ -2788,15 +2803,15 @@
         <v>23</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="54"/>
       <c r="I35" s="55">
-        <v>210</v>
-      </c>
-      <c r="J35" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J35" s="56">
+        <v>10</v>
       </c>
       <c r="K35" s="57">
         <v>162956.06216742247</v>
@@ -2825,7 +2840,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="50">
         <v>7790375001179</v>
@@ -2834,15 +2849,15 @@
         <v>23</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="54"/>
       <c r="I36" s="55">
-        <v>210</v>
-      </c>
-      <c r="J36" s="56" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="J36" s="56">
+        <v>10</v>
       </c>
       <c r="K36" s="57">
         <v>211599.61063696552</v>
@@ -2871,7 +2886,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="50">
         <v>7790375001186</v>
@@ -2880,15 +2895,15 @@
         <v>23</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="54"/>
       <c r="I37" s="55">
         <v>2</v>
       </c>
-      <c r="J37" s="56" t="s">
-        <v>25</v>
+      <c r="J37" s="56">
+        <v>10</v>
       </c>
       <c r="K37" s="57">
         <v>260243.15910650857</v>
@@ -2916,24 +2931,26 @@
       <c r="B38" s="48">
         <v>38</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="65">
+        <v>7798260150308</v>
+      </c>
+      <c r="E38" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="67">
-        <v>7798260150308</v>
-      </c>
-      <c r="E38" s="75" t="s">
+      <c r="F38" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="76"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="72"/>
       <c r="I38" s="55">
         <v>2</v>
       </c>
-      <c r="J38" s="72"/>
+      <c r="J38" s="56">
+        <v>10</v>
+      </c>
       <c r="K38" s="73">
         <v>3675.7383681466627</v>
       </c>
@@ -2960,26 +2977,28 @@
       <c r="B39" s="48">
         <v>38</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="65">
+        <v>7798260150315</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="67">
-        <v>7798260150315</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="76"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="55">
-        <v>2</v>
-      </c>
-      <c r="J39" s="72"/>
+        <v>66</v>
+      </c>
+      <c r="J39" s="56">
+        <v>10</v>
+      </c>
       <c r="K39" s="73">
-        <v>5987.3943049074023</v>
+        <v>365</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -3004,26 +3023,28 @@
       <c r="B40" s="48">
         <v>38</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="65">
+        <v>7798260150131</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="67">
-        <v>7798260150131</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="76"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="72"/>
       <c r="I40" s="55">
-        <v>2</v>
-      </c>
-      <c r="J40" s="76"/>
+        <v>66</v>
+      </c>
+      <c r="J40" s="56">
+        <v>10</v>
+      </c>
       <c r="K40" s="73">
-        <v>1652.5149446433663</v>
+        <v>365</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
@@ -3048,24 +3069,26 @@
       <c r="B41" s="48">
         <v>38</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="65">
+        <v>7798260150087</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="67">
-        <v>7798260150087</v>
-      </c>
-      <c r="E41" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="76"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="72"/>
       <c r="I41" s="55">
-        <v>2</v>
-      </c>
-      <c r="J41" s="76"/>
+        <v>66</v>
+      </c>
+      <c r="J41" s="56">
+        <v>10</v>
+      </c>
       <c r="K41" s="73">
         <v>1608.0241576721987</v>
       </c>
@@ -3092,24 +3115,26 @@
       <c r="B42" s="48">
         <v>38</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="65">
+        <v>7798260150070</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="67">
-        <v>7798260150070</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="76"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="72"/>
       <c r="I42" s="55">
         <v>2</v>
       </c>
-      <c r="J42" s="76"/>
+      <c r="J42" s="56">
+        <v>10</v>
+      </c>
       <c r="K42" s="73">
         <v>1805.0547856873698</v>
       </c>
@@ -3136,26 +3161,28 @@
       <c r="B43" s="48">
         <v>38</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="65">
+        <v>7798260150155</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="67">
-        <v>7798260150155</v>
-      </c>
-      <c r="E43" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="70"/>
-      <c r="H43" s="76"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="55">
-        <v>2</v>
-      </c>
-      <c r="J43" s="76"/>
+        <v>123</v>
+      </c>
+      <c r="J43" s="56">
+        <v>10</v>
+      </c>
       <c r="K43" s="73">
-        <v>1608.0241576721987</v>
+        <v>12</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -3180,25 +3207,25 @@
       <c r="B44" s="48">
         <v>38</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="65">
+        <v>7798260150278</v>
+      </c>
+      <c r="E44" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="67">
-        <v>7798260150278</v>
-      </c>
-      <c r="E44" s="77" t="s">
+      <c r="F44" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="70"/>
-      <c r="H44" s="76"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="72"/>
       <c r="I44" s="55">
         <v>2</v>
       </c>
-      <c r="J44" s="72" t="s">
-        <v>83</v>
+      <c r="J44" s="56">
+        <v>10</v>
       </c>
       <c r="K44" s="73">
         <v>1532271.3902178654</v>
@@ -3227,24 +3254,24 @@
         <v>38</v>
       </c>
       <c r="C45" s="49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="50">
         <v>7795312000536</v>
       </c>
-      <c r="E45" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="80" t="s">
-        <v>85</v>
+      <c r="E45" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="G45" s="53"/>
-      <c r="H45" s="81"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="55">
         <v>2</v>
       </c>
-      <c r="J45" s="56" t="s">
-        <v>25</v>
+      <c r="J45" s="56">
+        <v>10</v>
       </c>
       <c r="K45" s="57">
         <v>1808911.9171059744</v>
@@ -3272,24 +3299,26 @@
       <c r="B46" s="48">
         <v>38</v>
       </c>
-      <c r="C46" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="67">
+      <c r="C46" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="65">
         <v>7798260150360</v>
       </c>
-      <c r="E46" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="76"/>
+      <c r="E46" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="68"/>
+      <c r="H46" s="72"/>
       <c r="I46" s="55">
-        <v>2</v>
-      </c>
-      <c r="J46" s="76"/>
+        <v>2123212</v>
+      </c>
+      <c r="J46" s="56">
+        <v>10</v>
+      </c>
       <c r="K46" s="73">
         <v>4453.8455671493812</v>
       </c>
@@ -3316,24 +3345,26 @@
       <c r="B47" s="48">
         <v>38</v>
       </c>
-      <c r="C47" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="67">
+      <c r="C47" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="65">
         <v>7798260150018</v>
       </c>
-      <c r="E47" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="70"/>
-      <c r="H47" s="76"/>
+      <c r="E47" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="68"/>
+      <c r="H47" s="72"/>
       <c r="I47" s="55">
         <v>2</v>
       </c>
-      <c r="J47" s="76"/>
+      <c r="J47" s="56">
+        <v>10</v>
+      </c>
       <c r="K47" s="73">
         <v>4453.8455671493803</v>
       </c>
@@ -3360,24 +3391,26 @@
       <c r="B48" s="48">
         <v>38</v>
       </c>
-      <c r="C48" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="67">
+      <c r="C48" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="65">
         <v>7798260150476</v>
       </c>
-      <c r="E48" s="75" t="s">
+      <c r="E48" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="76"/>
+      <c r="F48" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="68"/>
+      <c r="H48" s="72"/>
       <c r="I48" s="55">
         <v>2</v>
       </c>
-      <c r="J48" s="76"/>
+      <c r="J48" s="56">
+        <v>10</v>
+      </c>
       <c r="K48" s="73">
         <v>41452.892858699437</v>
       </c>
@@ -3404,24 +3437,26 @@
       <c r="B49" s="48">
         <v>38</v>
       </c>
-      <c r="C49" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="67">
+      <c r="C49" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="65">
         <v>7798260150483</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F49" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="76"/>
+      <c r="F49" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="68"/>
+      <c r="H49" s="72"/>
       <c r="I49" s="55">
         <v>2</v>
       </c>
-      <c r="J49" s="76"/>
+      <c r="J49" s="56">
+        <v>10</v>
+      </c>
       <c r="K49" s="73">
         <v>125105.32095239674</v>
       </c>
@@ -3448,24 +3483,26 @@
       <c r="B50" s="48">
         <v>38</v>
       </c>
-      <c r="C50" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="67">
+      <c r="C50" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="65">
         <v>7798260150490</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E50" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="76"/>
+      <c r="F50" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="68"/>
+      <c r="H50" s="72"/>
       <c r="I50" s="55">
         <v>2</v>
       </c>
-      <c r="J50" s="76"/>
+      <c r="J50" s="56">
+        <v>10</v>
+      </c>
       <c r="K50" s="73">
         <v>180192.18571100742</v>
       </c>
@@ -3492,24 +3529,26 @@
       <c r="B51" s="48">
         <v>38</v>
       </c>
-      <c r="C51" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="67">
+      <c r="C51" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="65">
         <v>7798260150506</v>
       </c>
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="76"/>
+      <c r="F51" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="68"/>
+      <c r="H51" s="72"/>
       <c r="I51" s="55">
-        <v>2</v>
-      </c>
-      <c r="J51" s="76"/>
+        <v>2123</v>
+      </c>
+      <c r="J51" s="56">
+        <v>10</v>
+      </c>
       <c r="K51" s="73">
         <v>238110.62983864339</v>
       </c>
@@ -3537,25 +3576,27 @@
         <v>38</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="67">
+        <v>92</v>
+      </c>
+      <c r="D52" s="65">
         <v>7798260150582</v>
       </c>
       <c r="E52" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="70"/>
-      <c r="H52" s="76"/>
+      <c r="F52" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="68"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="55">
         <v>2</v>
       </c>
-      <c r="J52" s="64"/>
+      <c r="J52" s="56">
+        <v>10</v>
+      </c>
       <c r="K52" s="73">
-        <v>136439.56889594311</v>
+        <v>100</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -3580,24 +3621,26 @@
       <c r="B53" s="48">
         <v>38</v>
       </c>
-      <c r="C53" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="67">
+      <c r="C53" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="65">
         <v>7798260150469</v>
       </c>
-      <c r="E53" s="75" t="s">
+      <c r="E53" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="70"/>
-      <c r="H53" s="76"/>
+      <c r="F53" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="68"/>
+      <c r="H53" s="72"/>
       <c r="I53" s="55">
         <v>2</v>
       </c>
-      <c r="J53" s="76"/>
+      <c r="J53" s="56">
+        <v>10</v>
+      </c>
       <c r="K53" s="73">
         <v>83842.060307493884</v>
       </c>
@@ -3624,24 +3667,26 @@
       <c r="B54" s="48">
         <v>38</v>
       </c>
-      <c r="C54" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="67">
+      <c r="C54" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="65">
         <v>7798260150438</v>
       </c>
-      <c r="E54" s="75" t="s">
+      <c r="E54" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="76"/>
+      <c r="F54" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="68"/>
+      <c r="H54" s="72"/>
       <c r="I54" s="55">
         <v>2</v>
       </c>
-      <c r="J54" s="76"/>
+      <c r="J54" s="56">
+        <v>10</v>
+      </c>
       <c r="K54" s="73">
         <v>96</v>
       </c>
@@ -3668,24 +3713,26 @@
       <c r="B55" s="48">
         <v>38</v>
       </c>
-      <c r="C55" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="67">
+      <c r="C55" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="65">
         <v>7798260150445</v>
       </c>
-      <c r="E55" s="75" t="s">
+      <c r="E55" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="76"/>
+      <c r="F55" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="68"/>
+      <c r="H55" s="72"/>
       <c r="I55" s="55">
-        <v>2</v>
-      </c>
-      <c r="J55" s="76"/>
+        <v>21039</v>
+      </c>
+      <c r="J55" s="56">
+        <v>10</v>
+      </c>
       <c r="K55" s="73">
         <v>96</v>
       </c>
@@ -3712,24 +3759,26 @@
       <c r="B56" s="48">
         <v>38</v>
       </c>
-      <c r="C56" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="83">
+      <c r="C56" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="80">
         <v>7798260150452</v>
       </c>
-      <c r="E56" s="84" t="s">
+      <c r="E56" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="86"/>
-      <c r="H56" s="87"/>
+      <c r="F56" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="83"/>
+      <c r="H56" s="84"/>
       <c r="I56" s="55">
         <v>2</v>
       </c>
-      <c r="J56" s="87"/>
+      <c r="J56" s="56">
+        <v>10</v>
+      </c>
       <c r="K56" s="73">
         <v>96</v>
       </c>
@@ -3756,25 +3805,25 @@
       <c r="B57" s="48">
         <v>38</v>
       </c>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="86">
+        <v>7795302058462</v>
+      </c>
+      <c r="E57" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="89">
-        <v>7795302058462</v>
-      </c>
-      <c r="E57" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="F57" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" s="91"/>
-      <c r="H57" s="92"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="89"/>
       <c r="I57" s="55">
         <v>2</v>
       </c>
-      <c r="J57" s="93" t="s">
-        <v>25</v>
+      <c r="J57" s="56">
+        <v>10</v>
       </c>
       <c r="K57" s="73">
         <v>96</v>
@@ -3803,24 +3852,24 @@
         <v>38</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="50">
         <v>7798047984126</v>
       </c>
-      <c r="E58" s="79" t="s">
-        <v>101</v>
+      <c r="E58" s="76" t="s">
+        <v>99</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G58" s="53"/>
       <c r="H58" s="54"/>
       <c r="I58" s="55">
         <v>203</v>
       </c>
-      <c r="J58" s="56" t="s">
-        <v>25</v>
+      <c r="J58" s="56">
+        <v>10</v>
       </c>
       <c r="K58" s="73">
         <v>96</v>
@@ -3848,25 +3897,25 @@
       <c r="B59" s="48">
         <v>38</v>
       </c>
-      <c r="C59" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="95">
+      <c r="C59" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="91">
         <v>7798047984133</v>
       </c>
-      <c r="E59" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="98"/>
-      <c r="H59" s="99"/>
+      <c r="E59" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="94"/>
+      <c r="H59" s="95"/>
       <c r="I59" s="55">
         <v>203</v>
       </c>
-      <c r="J59" s="100" t="s">
-        <v>25</v>
+      <c r="J59" s="56">
+        <v>10</v>
       </c>
       <c r="K59" s="73">
         <v>96</v>
@@ -3894,25 +3943,25 @@
       <c r="B60" s="48">
         <v>38</v>
       </c>
-      <c r="C60" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="95">
+      <c r="C60" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="91">
         <v>7792371026224</v>
       </c>
-      <c r="E60" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" s="98"/>
-      <c r="H60" s="99"/>
+      <c r="E60" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="94"/>
+      <c r="H60" s="95"/>
       <c r="I60" s="55">
         <v>23</v>
       </c>
-      <c r="J60" s="100" t="s">
-        <v>25</v>
+      <c r="J60" s="56">
+        <v>10</v>
       </c>
       <c r="K60" s="73">
         <v>96</v>
@@ -3940,27 +3989,27 @@
       <c r="B61" s="48">
         <v>38</v>
       </c>
-      <c r="C61" s="94" t="s">
+      <c r="C61" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="91">
+        <v>7798021440259</v>
+      </c>
+      <c r="E61" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="94"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="95">
-        <v>7798021440259</v>
-      </c>
-      <c r="E61" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J61" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" s="101">
+      <c r="J61" s="56">
+        <v>10</v>
+      </c>
+      <c r="K61" s="96">
         <v>3308889.7930715042</v>
       </c>
       <c r="L61" s="9"/>
@@ -3986,27 +4035,27 @@
       <c r="B62" s="48">
         <v>38</v>
       </c>
-      <c r="C62" s="94" t="s">
+      <c r="C62" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="91">
+        <v>7792371477798</v>
+      </c>
+      <c r="E62" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="95">
-        <v>7792371477798</v>
-      </c>
-      <c r="E62" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="98"/>
-      <c r="H62" s="99"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="95"/>
       <c r="I62" s="55">
         <v>1060</v>
       </c>
-      <c r="J62" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" s="101">
+      <c r="J62" s="56">
+        <v>10</v>
+      </c>
+      <c r="K62" s="96">
         <v>2741374.3023971813</v>
       </c>
       <c r="L62" s="9"/>
@@ -4033,24 +4082,26 @@
         <v>38</v>
       </c>
       <c r="C63" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" s="59">
         <v>4545</v>
       </c>
-      <c r="E63" s="102" t="s">
-        <v>101</v>
+      <c r="E63" s="97" t="s">
+        <v>99</v>
       </c>
       <c r="F63" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G63" s="70"/>
-      <c r="H63" s="103"/>
+        <v>102</v>
+      </c>
+      <c r="G63" s="68"/>
+      <c r="H63" s="98"/>
       <c r="I63" s="55">
         <v>1060</v>
       </c>
-      <c r="J63" s="64"/>
-      <c r="K63" s="65">
+      <c r="J63" s="56">
+        <v>10</v>
+      </c>
+      <c r="K63" s="99">
         <v>476188.91930791026</v>
       </c>
       <c r="L63" s="9"/>
@@ -4076,25 +4127,27 @@
       <c r="B64" s="48">
         <v>38</v>
       </c>
-      <c r="C64" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="105">
+      <c r="C64" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="101">
         <v>7798260150605</v>
       </c>
-      <c r="E64" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" s="70"/>
-      <c r="H64" s="103"/>
+      <c r="E64" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="68"/>
+      <c r="H64" s="98"/>
       <c r="I64" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J64" s="108"/>
-      <c r="K64" s="109">
+        <v>12</v>
+      </c>
+      <c r="J64" s="56">
+        <v>10</v>
+      </c>
+      <c r="K64" s="104">
         <v>803379.01049939659</v>
       </c>
       <c r="L64" s="9"/>
@@ -4117,30 +4170,30 @@
       <c r="A65" s="47">
         <v>50</v>
       </c>
-      <c r="B65" s="110">
+      <c r="B65" s="105">
         <v>38</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="91">
+        <v>7792371177650</v>
+      </c>
+      <c r="E65" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="95">
-        <v>7792371177650</v>
-      </c>
-      <c r="E65" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="97" t="s">
-        <v>116</v>
-      </c>
       <c r="G65" s="53"/>
-      <c r="H65" s="81"/>
+      <c r="H65" s="78"/>
       <c r="I65" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J65" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" s="101">
+        <v>12</v>
+      </c>
+      <c r="J65" s="56">
+        <v>10</v>
+      </c>
+      <c r="K65" s="96">
         <v>1261571.0257399261</v>
       </c>
       <c r="L65" s="9"/>
@@ -4163,28 +4216,30 @@
       <c r="A66" s="47">
         <v>51</v>
       </c>
-      <c r="B66" s="110">
+      <c r="B66" s="105">
         <v>77</v>
       </c>
-      <c r="C66" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="67">
+      <c r="C66" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="65">
         <v>7798260150520</v>
       </c>
-      <c r="E66" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="103"/>
+      <c r="E66" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="68"/>
+      <c r="H66" s="98"/>
       <c r="I66" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J66" s="64"/>
-      <c r="K66" s="65">
+        <v>12</v>
+      </c>
+      <c r="J66" s="56">
+        <v>10</v>
+      </c>
+      <c r="K66" s="99">
         <v>1693639.6837299359</v>
       </c>
       <c r="L66" s="9"/>
@@ -4207,28 +4262,30 @@
       <c r="A67" s="47">
         <v>52</v>
       </c>
-      <c r="B67" s="110">
+      <c r="B67" s="105">
         <v>77</v>
       </c>
-      <c r="C67" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="105">
+      <c r="C67" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="101">
         <v>7798260150544</v>
       </c>
-      <c r="E67" s="106" t="s">
+      <c r="E67" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="70"/>
-      <c r="H67" s="111"/>
+      <c r="F67" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="68"/>
+      <c r="H67" s="106"/>
       <c r="I67" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J67" s="108"/>
-      <c r="K67" s="65">
+        <v>12</v>
+      </c>
+      <c r="J67" s="56">
+        <v>10</v>
+      </c>
+      <c r="K67" s="99">
         <v>5742.6804077904053</v>
       </c>
       <c r="L67" s="9"/>
@@ -4251,27 +4308,29 @@
       <c r="A68" s="47">
         <v>53</v>
       </c>
-      <c r="B68" s="110">
+      <c r="B68" s="105">
         <v>77</v>
       </c>
-      <c r="C68" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="105">
+      <c r="C68" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="101">
         <v>7798260150568</v>
       </c>
-      <c r="E68" s="106" t="s">
+      <c r="E68" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="70"/>
-      <c r="H68" s="111"/>
+      <c r="F68" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="68"/>
+      <c r="H68" s="106"/>
       <c r="I68" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J68" s="108"/>
+        <v>12</v>
+      </c>
+      <c r="J68" s="56">
+        <v>10</v>
+      </c>
       <c r="K68" s="73">
         <v>9095.2853063402836</v>
       </c>
@@ -4295,27 +4354,29 @@
       <c r="A69" s="47">
         <v>54</v>
       </c>
-      <c r="B69" s="110">
+      <c r="B69" s="105">
         <v>77</v>
       </c>
-      <c r="C69" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="105">
+      <c r="C69" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="101">
         <v>7798260150575</v>
       </c>
-      <c r="E69" s="106" t="s">
+      <c r="E69" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="111"/>
+      <c r="F69" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="68"/>
+      <c r="H69" s="106"/>
       <c r="I69" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J69" s="108"/>
+        <v>12</v>
+      </c>
+      <c r="J69" s="56">
+        <v>10</v>
+      </c>
       <c r="K69" s="73">
         <v>17687.533646221804</v>
       </c>
@@ -4339,29 +4400,31 @@
       <c r="A70" s="47">
         <v>55</v>
       </c>
-      <c r="B70" s="110">
+      <c r="B70" s="105">
         <v>77</v>
       </c>
-      <c r="C70" s="104" t="s">
+      <c r="C70" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="101">
+        <v>7798260150612</v>
+      </c>
+      <c r="E70" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="105">
-        <v>7798260150612</v>
-      </c>
-      <c r="E70" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="70"/>
-      <c r="H70" s="111"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="106"/>
       <c r="I70" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J70" s="108"/>
+        <v>12</v>
+      </c>
+      <c r="J70" s="56">
+        <v>10</v>
+      </c>
       <c r="K70" s="73">
-        <v>24965.067712925225</v>
+        <v>24965.067712925298</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
@@ -4383,27 +4446,29 @@
       <c r="A71" s="47">
         <v>56</v>
       </c>
-      <c r="B71" s="110">
+      <c r="B71" s="105">
         <v>77</v>
       </c>
-      <c r="C71" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="105">
+      <c r="C71" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="101">
         <v>7798260150704</v>
       </c>
-      <c r="E71" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="111"/>
+      <c r="E71" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="68"/>
+      <c r="H71" s="106"/>
       <c r="I71" s="55">
-        <v>1060</v>
-      </c>
-      <c r="J71" s="108"/>
+        <v>12</v>
+      </c>
+      <c r="J71" s="56">
+        <v>10</v>
+      </c>
       <c r="K71" s="73">
         <v>36830.258557637993</v>
       </c>
@@ -4427,27 +4492,29 @@
       <c r="A72" s="47">
         <v>57</v>
       </c>
-      <c r="B72" s="110">
+      <c r="B72" s="105">
         <v>77</v>
       </c>
-      <c r="C72" s="104" t="s">
+      <c r="C72" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="101">
+        <v>7798260150636</v>
+      </c>
+      <c r="E72" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="105">
-        <v>7798260150636</v>
-      </c>
-      <c r="E72" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="107" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" s="70"/>
-      <c r="H72" s="111"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="106"/>
       <c r="I72" s="55">
+        <v>12</v>
+      </c>
+      <c r="J72" s="56">
         <v>10</v>
       </c>
-      <c r="J72" s="108"/>
       <c r="K72" s="73">
         <v>10424.185003948594</v>
       </c>
@@ -4471,27 +4538,29 @@
       <c r="A73" s="47">
         <v>58</v>
       </c>
-      <c r="B73" s="110">
+      <c r="B73" s="105">
         <v>77</v>
       </c>
-      <c r="C73" s="104" t="s">
+      <c r="C73" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="101">
+        <v>7798260150643</v>
+      </c>
+      <c r="E73" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="D73" s="105">
-        <v>7798260150643</v>
-      </c>
-      <c r="E73" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="107" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="111"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="106"/>
       <c r="I73" s="55">
+        <v>12</v>
+      </c>
+      <c r="J73" s="56">
         <v>10</v>
       </c>
-      <c r="J73" s="108"/>
       <c r="K73" s="73">
         <v>13207.305701214345</v>
       </c>
@@ -4515,27 +4584,29 @@
       <c r="A74" s="47">
         <v>59</v>
       </c>
-      <c r="B74" s="110">
+      <c r="B74" s="105">
         <v>77</v>
       </c>
-      <c r="C74" s="104" t="s">
+      <c r="C74" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="101">
+        <v>7798260150650</v>
+      </c>
+      <c r="E74" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="D74" s="105">
-        <v>7798260150650</v>
-      </c>
-      <c r="E74" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="111"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="106"/>
       <c r="I74" s="55">
+        <v>12</v>
+      </c>
+      <c r="J74" s="56">
         <v>10</v>
       </c>
-      <c r="J74" s="108"/>
       <c r="K74" s="73">
         <v>15132.842800300301</v>
       </c>
@@ -4559,29 +4630,31 @@
       <c r="A75" s="47">
         <v>60</v>
       </c>
-      <c r="B75" s="110">
+      <c r="B75" s="105">
         <v>77</v>
       </c>
-      <c r="C75" s="104" t="s">
+      <c r="C75" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="101">
+        <v>7798260150667</v>
+      </c>
+      <c r="E75" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="D75" s="105">
-        <v>7798260150667</v>
-      </c>
-      <c r="E75" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" s="70"/>
-      <c r="H75" s="111"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="106"/>
       <c r="I75" s="55">
+        <v>12</v>
+      </c>
+      <c r="J75" s="56">
         <v>10</v>
       </c>
-      <c r="J75" s="108"/>
       <c r="K75" s="73">
-        <v>585</v>
+        <v>10</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -4603,29 +4676,31 @@
       <c r="A76" s="47">
         <v>61</v>
       </c>
-      <c r="B76" s="110">
+      <c r="B76" s="105">
         <v>77</v>
       </c>
-      <c r="C76" s="104" t="s">
+      <c r="C76" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="101">
+        <v>7798260150674</v>
+      </c>
+      <c r="E76" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="105">
-        <v>7798260150674</v>
-      </c>
-      <c r="E76" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="111"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="106"/>
       <c r="I76" s="55">
+        <v>12</v>
+      </c>
+      <c r="J76" s="56">
         <v>10</v>
       </c>
-      <c r="J76" s="108"/>
       <c r="K76" s="73">
-        <v>14087.194247285501</v>
+        <v>10</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -4647,29 +4722,31 @@
       <c r="A77" s="47">
         <v>62</v>
       </c>
-      <c r="B77" s="110">
+      <c r="B77" s="105">
         <v>77</v>
       </c>
-      <c r="C77" s="104" t="s">
+      <c r="C77" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="101">
+        <v>7798260150681</v>
+      </c>
+      <c r="E77" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="105">
-        <v>7798260150681</v>
-      </c>
-      <c r="E77" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="107" t="s">
-        <v>135</v>
-      </c>
-      <c r="G77" s="70"/>
-      <c r="H77" s="111"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="106"/>
       <c r="I77" s="55">
+        <v>12</v>
+      </c>
+      <c r="J77" s="56">
         <v>10</v>
       </c>
-      <c r="J77" s="108"/>
       <c r="K77" s="73">
-        <v>15182.913243492114</v>
+        <v>10</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -4691,29 +4768,31 @@
       <c r="A78" s="47">
         <v>63</v>
       </c>
-      <c r="B78" s="110">
+      <c r="B78" s="105">
         <v>77</v>
       </c>
-      <c r="C78" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="105">
+      <c r="C78" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="101">
         <v>7798260150728</v>
       </c>
-      <c r="E78" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" s="86"/>
-      <c r="H78" s="111"/>
+      <c r="E78" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="G78" s="83"/>
+      <c r="H78" s="106"/>
       <c r="I78" s="55">
+        <v>12</v>
+      </c>
+      <c r="J78" s="56">
         <v>10</v>
       </c>
-      <c r="J78" s="108"/>
       <c r="K78" s="73">
-        <v>3308889.7930715042</v>
+        <v>10</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -4735,29 +4814,31 @@
       <c r="A79" s="47">
         <v>64</v>
       </c>
-      <c r="B79" s="110">
+      <c r="B79" s="105">
         <v>77</v>
       </c>
-      <c r="C79" s="104" t="s">
+      <c r="C79" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="101">
+        <v>7798260150711</v>
+      </c>
+      <c r="E79" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="D79" s="105">
-        <v>7798260150711</v>
-      </c>
-      <c r="E79" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="G79" s="86"/>
-      <c r="H79" s="111"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="106"/>
       <c r="I79" s="55">
+        <v>12</v>
+      </c>
+      <c r="J79" s="56">
         <v>10</v>
       </c>
-      <c r="J79" s="108"/>
       <c r="K79" s="73">
-        <v>17451.526273340158</v>
+        <v>10</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -4776,32 +4857,34 @@
       <c r="Z79" s="9"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="113">
+      <c r="A80" s="108">
         <v>65</v>
       </c>
-      <c r="B80" s="110">
+      <c r="B80" s="105">
         <v>77</v>
       </c>
-      <c r="C80" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="105">
+      <c r="C80" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="101">
         <v>7798260150742</v>
       </c>
-      <c r="E80" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" s="86"/>
-      <c r="H80" s="111"/>
+      <c r="E80" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="G80" s="83"/>
+      <c r="H80" s="106"/>
       <c r="I80" s="55">
+        <v>12</v>
+      </c>
+      <c r="J80" s="56">
         <v>10</v>
       </c>
-      <c r="J80" s="108"/>
-      <c r="K80" s="114">
-        <v>1273819.2881257511</v>
+      <c r="K80" s="73">
+        <v>10</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -4823,29 +4906,31 @@
       <c r="A81" s="47">
         <v>66</v>
       </c>
-      <c r="B81" s="110">
+      <c r="B81" s="105">
         <v>77</v>
       </c>
-      <c r="C81" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D81" s="115">
+      <c r="C81" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="109">
         <v>7798260150735</v>
       </c>
-      <c r="E81" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G81" s="86"/>
-      <c r="H81" s="111"/>
+      <c r="E81" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="83"/>
+      <c r="H81" s="106"/>
       <c r="I81" s="55">
+        <v>12</v>
+      </c>
+      <c r="J81" s="56">
         <v>10</v>
       </c>
-      <c r="J81" s="108"/>
-      <c r="K81" s="114">
-        <v>2741374.3023971813</v>
+      <c r="K81" s="73">
+        <v>10</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
@@ -4867,29 +4952,31 @@
       <c r="A82" s="47">
         <v>66</v>
       </c>
-      <c r="B82" s="110">
+      <c r="B82" s="105">
         <v>77</v>
       </c>
-      <c r="C82" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="115">
+      <c r="C82" s="100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="109">
         <v>7798260150735</v>
       </c>
-      <c r="E82" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G82" s="86"/>
-      <c r="H82" s="111"/>
+      <c r="E82" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" s="83"/>
+      <c r="H82" s="106"/>
       <c r="I82" s="55">
+        <v>12</v>
+      </c>
+      <c r="J82" s="56">
         <v>10</v>
       </c>
-      <c r="J82" s="108"/>
-      <c r="K82" s="114">
-        <v>2741374.3023971813</v>
+      <c r="K82" s="73">
+        <v>10</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -4911,29 +4998,31 @@
       <c r="A83" s="47">
         <v>66</v>
       </c>
-      <c r="B83" s="110">
+      <c r="B83" s="105">
         <v>77</v>
       </c>
-      <c r="C83" s="104" t="s">
+      <c r="C83" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G83" s="86"/>
-      <c r="H83" s="111"/>
+      <c r="E83" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F83" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" s="83"/>
+      <c r="H83" s="106"/>
       <c r="I83" s="55">
+        <v>12</v>
+      </c>
+      <c r="J83" s="56">
         <v>10</v>
       </c>
-      <c r="J83" s="108"/>
-      <c r="K83" s="114">
-        <v>2741374.3023971813</v>
+      <c r="K83" s="73">
+        <v>10</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
@@ -4951,18 +5040,36 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="116"/>
-      <c r="B84" s="117"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="119"/>
-      <c r="E84" s="118"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="120"/>
-      <c r="H84" s="120"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="118"/>
-      <c r="K84" s="121"/>
+    <row r="84" ht="15" customHeight="1">
+      <c r="A84" s="47">
+        <v>66</v>
+      </c>
+      <c r="B84" s="105">
+        <v>77</v>
+      </c>
+      <c r="C84" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G84" s="83"/>
+      <c r="H84" s="106"/>
+      <c r="I84" s="55">
+        <v>1024</v>
+      </c>
+      <c r="J84" s="56">
+        <v>10</v>
+      </c>
+      <c r="K84" s="73">
+        <v>10</v>
+      </c>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -4979,18 +5086,36 @@
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="116"/>
-      <c r="B85" s="117"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="119"/>
-      <c r="E85" s="118"/>
-      <c r="F85" s="120"/>
-      <c r="G85" s="120"/>
-      <c r="H85" s="120"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="121"/>
+    <row r="85" ht="15" customHeight="1">
+      <c r="A85" s="47">
+        <v>66</v>
+      </c>
+      <c r="B85" s="105">
+        <v>77</v>
+      </c>
+      <c r="C85" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G85" s="83"/>
+      <c r="H85" s="106"/>
+      <c r="I85" s="55">
+        <v>10249</v>
+      </c>
+      <c r="J85" s="56">
+        <v>10</v>
+      </c>
+      <c r="K85" s="73">
+        <v>10</v>
+      </c>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -5007,18 +5132,36 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="116"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="119"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="118"/>
-      <c r="J86" s="118"/>
-      <c r="K86" s="121"/>
+    <row r="86" ht="15" customHeight="1">
+      <c r="A86" s="47">
+        <v>66</v>
+      </c>
+      <c r="B86" s="105">
+        <v>77</v>
+      </c>
+      <c r="C86" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G86" s="83"/>
+      <c r="H86" s="106"/>
+      <c r="I86" s="55">
+        <v>10249</v>
+      </c>
+      <c r="J86" s="56">
+        <v>10</v>
+      </c>
+      <c r="K86" s="73">
+        <v>10</v>
+      </c>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -5036,17 +5179,17 @@
       <c r="Z86" s="9"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="116"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="119"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="120"/>
-      <c r="G87" s="120"/>
-      <c r="H87" s="120"/>
-      <c r="I87" s="118"/>
-      <c r="J87" s="118"/>
-      <c r="K87" s="121"/>
+      <c r="A87" s="110"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="114"/>
+      <c r="G87" s="114"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="115"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -5064,17 +5207,17 @@
       <c r="Z87" s="9"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="116"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="119"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="120"/>
-      <c r="G88" s="120"/>
-      <c r="H88" s="120"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="118"/>
-      <c r="K88" s="121"/>
+      <c r="A88" s="110"/>
+      <c r="B88" s="111"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="113"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="115"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -5092,17 +5235,17 @@
       <c r="Z88" s="9"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="116"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="119"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="120"/>
-      <c r="G89" s="120"/>
-      <c r="H89" s="120"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="118"/>
-      <c r="K89" s="121"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="114"/>
+      <c r="H89" s="114"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="112"/>
+      <c r="K89" s="115"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -5120,17 +5263,17 @@
       <c r="Z89" s="9"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="116"/>
-      <c r="B90" s="122"/>
-      <c r="C90" s="116"/>
-      <c r="D90" s="116"/>
-      <c r="E90" s="123"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="120"/>
-      <c r="I90" s="118"/>
-      <c r="J90" s="118"/>
-      <c r="K90" s="121"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="114"/>
+      <c r="H90" s="114"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="115"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -5148,17 +5291,17 @@
       <c r="Z90" s="9"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="116"/>
-      <c r="B91" s="122"/>
-      <c r="C91" s="116"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="120"/>
-      <c r="G91" s="120"/>
-      <c r="H91" s="120"/>
-      <c r="I91" s="118"/>
-      <c r="J91" s="118"/>
-      <c r="K91" s="121"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="114"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="115"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -5176,17 +5319,17 @@
       <c r="Z91" s="9"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="116"/>
-      <c r="B92" s="122"/>
-      <c r="C92" s="116"/>
-      <c r="D92" s="116"/>
-      <c r="E92" s="123"/>
-      <c r="F92" s="120"/>
-      <c r="G92" s="120"/>
-      <c r="H92" s="120"/>
-      <c r="I92" s="118"/>
-      <c r="J92" s="118"/>
-      <c r="K92" s="121"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="110"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="115"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -5204,17 +5347,17 @@
       <c r="Z92" s="9"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="116"/>
-      <c r="B93" s="122"/>
-      <c r="C93" s="116"/>
-      <c r="D93" s="116"/>
-      <c r="E93" s="123"/>
-      <c r="F93" s="120"/>
-      <c r="G93" s="120"/>
-      <c r="H93" s="120"/>
-      <c r="I93" s="118"/>
-      <c r="J93" s="118"/>
-      <c r="K93" s="118"/>
+      <c r="A93" s="110"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="112"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -5232,17 +5375,17 @@
       <c r="Z93" s="9"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="116"/>
-      <c r="B94" s="122"/>
-      <c r="C94" s="116"/>
-      <c r="D94" s="116"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="120"/>
-      <c r="G94" s="120"/>
-      <c r="H94" s="120"/>
-      <c r="I94" s="118"/>
-      <c r="J94" s="118"/>
-      <c r="K94" s="118"/>
+      <c r="A94" s="110"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="110"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="114"/>
+      <c r="H94" s="114"/>
+      <c r="I94" s="112"/>
+      <c r="J94" s="112"/>
+      <c r="K94" s="112"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -5260,17 +5403,17 @@
       <c r="Z94" s="9"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="116"/>
-      <c r="B95" s="122"/>
-      <c r="C95" s="116"/>
-      <c r="D95" s="116"/>
-      <c r="E95" s="123"/>
-      <c r="F95" s="120"/>
-      <c r="G95" s="120"/>
-      <c r="H95" s="120"/>
-      <c r="I95" s="118"/>
-      <c r="J95" s="118"/>
-      <c r="K95" s="118"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="110"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="112"/>
+      <c r="K95" s="112"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -5288,17 +5431,17 @@
       <c r="Z95" s="9"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="116"/>
-      <c r="B96" s="122"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="116"/>
-      <c r="E96" s="123"/>
-      <c r="F96" s="120"/>
-      <c r="G96" s="120"/>
-      <c r="H96" s="120"/>
-      <c r="I96" s="118"/>
-      <c r="J96" s="118"/>
-      <c r="K96" s="118"/>
+      <c r="A96" s="110"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="114"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="112"/>
+      <c r="J96" s="112"/>
+      <c r="K96" s="112"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
@@ -5316,17 +5459,17 @@
       <c r="Z96" s="9"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="116"/>
-      <c r="B97" s="122"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="120"/>
-      <c r="G97" s="120"/>
-      <c r="H97" s="120"/>
-      <c r="I97" s="118"/>
-      <c r="J97" s="118"/>
-      <c r="K97" s="118"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="114"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="112"/>
+      <c r="K97" s="112"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
@@ -5344,17 +5487,17 @@
       <c r="Z97" s="9"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="116"/>
-      <c r="B98" s="122"/>
-      <c r="C98" s="116"/>
-      <c r="D98" s="116"/>
-      <c r="E98" s="123"/>
-      <c r="F98" s="120"/>
-      <c r="G98" s="120"/>
-      <c r="H98" s="120"/>
-      <c r="I98" s="118"/>
-      <c r="J98" s="118"/>
-      <c r="K98" s="118"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="110"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="112"/>
+      <c r="K98" s="112"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
